--- a/CrossFinance/DetailFormatInExcel/DetailsFormat.xlsx
+++ b/CrossFinance/DetailFormatInExcel/DetailsFormat.xlsx
@@ -16,34 +16,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>SecondName</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>NationalIdentificationNumber</t>
-  </si>
-  <si>
-    <t>AddressId</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>PhoneNumber2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>nr_umowy</t>
+  </si>
+  <si>
+    <t>imie</t>
+  </si>
+  <si>
+    <t>nazwisko</t>
+  </si>
+  <si>
+    <t>PESEL</t>
+  </si>
+  <si>
+    <t>MAIN_STREET_NAME</t>
+  </si>
+  <si>
+    <t>MAIN_STREET_NUMBER</t>
+  </si>
+  <si>
+    <t>MAIN_STREET_FLAT_NUMBER</t>
+  </si>
+  <si>
+    <t>MAIN_POST_CODE</t>
+  </si>
+  <si>
+    <t>MAIN_POST_OFFICE_CITY</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_STREET_NAME</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_STREET_NUMBER</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_STREET_FLAT_NUMBER</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_POST_CODE</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_POST_OFFICE_CITY</t>
+  </si>
+  <si>
+    <t>Telefon 1</t>
+  </si>
+  <si>
+    <t>Telefon2</t>
+  </si>
+  <si>
+    <t>Kapital</t>
+  </si>
+  <si>
+    <t>odsetki</t>
+  </si>
+  <si>
+    <t>odsetki Karne</t>
+  </si>
+  <si>
+    <t>opłaty</t>
+  </si>
+  <si>
+    <t>koszty sadowe</t>
+  </si>
+  <si>
+    <t>koszty zastepstwa sadowego</t>
+  </si>
+  <si>
+    <t>koszty egzekucji</t>
+  </si>
+  <si>
+    <t>koszty zastepstwa egzekucyjnego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +105,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,12 +130,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -376,44 +455,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
